--- a/resources/БАЗА ДАННЫХ/litefinance/excel/dinhhieu.xlsx
+++ b/resources/БАЗА ДАННЫХ/litefinance/excel/dinhhieu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H103"/>
+  <dimension ref="A1:H110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,27 +503,27 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2023.11.22 01:00</t>
+          <t>2023.11.21 15:15</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>35700.62</t>
+          <t>36923.27</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2023.11.22 11:16</t>
+          <t>2023.11.29 01:05</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>36628</t>
+          <t>37726.35</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0,28 USD</t>
+          <t>0,18 USD</t>
         </is>
       </c>
     </row>
@@ -545,27 +545,27 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2023.11.17 01:46</t>
+          <t>2023.11.22 00:58</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>36355.04</t>
+          <t>35826.25</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2023.11.20 00:58</t>
+          <t>2023.11.29 01:05</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>37347.51</t>
+          <t>37726.35</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0,28 USD</t>
+          <t>0,52 USD</t>
         </is>
       </c>
     </row>
@@ -587,27 +587,27 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2023.11.17 16:57</t>
+          <t>2023.11.22 00:57</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>36077.49</t>
+          <t>35829.13</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2023.11.20 00:58</t>
+          <t>2023.11.29 01:05</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>37341.58</t>
+          <t>37726.35</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0,36 USD</t>
+          <t>0,51 USD</t>
         </is>
       </c>
     </row>
@@ -629,27 +629,27 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2023.11.18 01:44</t>
+          <t>2023.11.27 11:35</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>36434.22</t>
+          <t>37195.12</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2023.11.20 00:57</t>
+          <t>2023.11.29 01:04</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>37341.58</t>
+          <t>37741.59</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0,27 USD</t>
+          <t>0,15 USD</t>
         </is>
       </c>
     </row>
@@ -671,27 +671,27 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2023.11.19 01:24</t>
+          <t>2023.11.27 12:53</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>36577.5</t>
+          <t>37136.6</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2023.11.20 00:57</t>
+          <t>2023.11.29 01:04</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>37348.67</t>
+          <t>37746.41</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0,23 USD</t>
+          <t>0,17 USD</t>
         </is>
       </c>
     </row>
@@ -713,27 +713,27 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2023.11.19 01:57</t>
+          <t>2023.11.27 13:41</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>36498.06</t>
+          <t>36956.51</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2023.11.20 00:57</t>
+          <t>2023.11.29 01:04</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>37350.8</t>
+          <t>37753.35</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0,26 USD</t>
+          <t>0,22 USD</t>
         </is>
       </c>
     </row>
@@ -755,34 +755,34 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2023.11.19 12:26</t>
+          <t>2023.11.27 15:34</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>36424.99</t>
+          <t>36902.05</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2023.11.20 00:57</t>
+          <t>2023.11.29 01:04</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>37350.8</t>
+          <t>37753.35</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0,28 USD</t>
+          <t>0,24 USD</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -792,39 +792,39 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2023.11.08 12:21</t>
+          <t>2023.11.22 01:00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>35333.62</t>
+          <t>35700.62</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2023.11.19 01:24</t>
+          <t>2023.11.22 11:16</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>36576.63</t>
+          <t>36628</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>-0,15 USD</t>
+          <t>0,28 USD</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -834,39 +834,39 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2023.11.07 15:49</t>
+          <t>2023.11.17 01:46</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>34774.08</t>
+          <t>36355.04</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2023.11.19 01:24</t>
+          <t>2023.11.20 00:58</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>36576.63</t>
+          <t>37347.51</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>-0,21 USD</t>
+          <t>0,28 USD</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -876,39 +876,39 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2023.11.02 02:55</t>
+          <t>2023.11.17 16:57</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>35558.57</t>
+          <t>36077.49</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2023.11.19 01:24</t>
+          <t>2023.11.20 00:58</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>36576.63</t>
+          <t>37341.58</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>-0,15 USD</t>
+          <t>0,36 USD</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -918,39 +918,39 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2023.11.02 01:21</t>
+          <t>2023.11.18 01:44</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>35528.66</t>
+          <t>36434.22</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2023.11.19 01:24</t>
+          <t>2023.11.20 00:57</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>36576.63</t>
+          <t>37341.58</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>-0,15 USD</t>
+          <t>0,27 USD</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -965,34 +965,34 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2023.11.06 00:57</t>
+          <t>2023.11.19 01:24</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>35040.87</t>
+          <t>36577.5</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2023.11.16 01:30</t>
+          <t>2023.11.20 00:57</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>37775.68</t>
+          <t>37348.67</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>0,25 USD</t>
+          <t>0,23 USD</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1007,34 +1007,34 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2023.11.05 14:46</t>
+          <t>2023.11.19 01:57</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>35072.53</t>
+          <t>36498.06</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2023.11.16 01:30</t>
+          <t>2023.11.20 00:57</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>37775.7</t>
+          <t>37350.8</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>0,25 USD</t>
+          <t>0,26 USD</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1049,27 +1049,27 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2023.11.05 11:21</t>
+          <t>2023.11.19 12:26</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>35074.75</t>
+          <t>36424.99</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2023.11.16 01:30</t>
+          <t>2023.11.20 00:57</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>37775.7</t>
+          <t>37350.8</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>0,24 USD</t>
+          <t>0,28 USD</t>
         </is>
       </c>
     </row>
@@ -1086,32 +1086,32 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2023.11.05 01:41</t>
+          <t>2023.11.08 12:21</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>35017.52</t>
+          <t>35333.62</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2023.11.16 01:30</t>
+          <t>2023.11.19 01:24</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>37765.36</t>
+          <t>36576.63</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>0,25 USD</t>
+          <t>-0,15 USD</t>
         </is>
       </c>
     </row>
@@ -1128,32 +1128,32 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2023.11.06 01:24</t>
+          <t>2023.11.07 15:49</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>35022.81</t>
+          <t>34774.08</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2023.11.16 01:30</t>
+          <t>2023.11.19 01:24</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>37761.8</t>
+          <t>36576.63</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>0,25 USD</t>
+          <t>-0,21 USD</t>
         </is>
       </c>
     </row>
@@ -1170,32 +1170,32 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2023.11.06 02:38</t>
+          <t>2023.11.02 02:55</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>34992.85</t>
+          <t>35558.57</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2023.11.16 01:30</t>
+          <t>2023.11.19 01:24</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>37761.8</t>
+          <t>36576.63</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>0,25 USD</t>
+          <t>-0,15 USD</t>
         </is>
       </c>
     </row>
@@ -1212,32 +1212,32 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2023.11.05 15:45</t>
+          <t>2023.11.02 01:21</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>34910.54</t>
+          <t>35528.66</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2023.11.16 00:59</t>
+          <t>2023.11.19 01:24</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>37862.53</t>
+          <t>36576.63</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>0,27 USD</t>
+          <t>-0,15 USD</t>
         </is>
       </c>
     </row>
@@ -1259,27 +1259,27 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2023.11.05 14:57</t>
+          <t>2023.11.06 00:57</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>34903.1</t>
+          <t>35040.87</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2023.11.16 00:59</t>
+          <t>2023.11.16 01:30</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>37862.53</t>
+          <t>37775.68</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>0,27 USD</t>
+          <t>0,25 USD</t>
         </is>
       </c>
     </row>
@@ -1301,22 +1301,22 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2023.11.06 03:07</t>
+          <t>2023.11.05 14:46</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>34947.08</t>
+          <t>35072.53</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2023.11.15 23:40</t>
+          <t>2023.11.16 01:30</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>37708.46</t>
+          <t>37775.7</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1343,27 +1343,27 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2023.11.06 05:49</t>
+          <t>2023.11.05 11:21</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>34863.41</t>
+          <t>35074.75</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2023.11.15 23:39</t>
+          <t>2023.11.16 01:30</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>37709.29</t>
+          <t>37775.7</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>0,26 USD</t>
+          <t>0,24 USD</t>
         </is>
       </c>
     </row>
@@ -1385,27 +1385,27 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2023.11.06 06:44</t>
+          <t>2023.11.05 01:41</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>34763.51</t>
+          <t>35017.52</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2023.11.15 23:39</t>
+          <t>2023.11.16 01:30</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>37712.78</t>
+          <t>37765.36</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>0,27 USD</t>
+          <t>0,25 USD</t>
         </is>
       </c>
     </row>
@@ -1427,27 +1427,27 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2023.11.06 06:44</t>
+          <t>2023.11.06 01:24</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>34755.58</t>
+          <t>35022.81</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2023.11.15 23:39</t>
+          <t>2023.11.16 01:30</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>37722.76</t>
+          <t>37761.8</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>0,27 USD</t>
+          <t>0,25 USD</t>
         </is>
       </c>
     </row>
@@ -1469,27 +1469,27 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2023.11.07 17:53</t>
+          <t>2023.11.06 02:38</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>34675.2</t>
+          <t>34992.85</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2023.11.15 23:39</t>
+          <t>2023.11.16 01:30</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>37722.46</t>
+          <t>37761.8</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>0,28 USD</t>
+          <t>0,25 USD</t>
         </is>
       </c>
     </row>
@@ -1511,27 +1511,27 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2023.11.07 11:56</t>
+          <t>2023.11.05 15:45</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>34604.16</t>
+          <t>34910.54</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2023.11.15 23:39</t>
+          <t>2023.11.16 00:59</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>37721.32</t>
+          <t>37862.53</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>0,29 USD</t>
+          <t>0,27 USD</t>
         </is>
       </c>
     </row>
@@ -1553,27 +1553,27 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2023.11.07 11:13</t>
+          <t>2023.11.05 14:57</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>34698.35</t>
+          <t>34903.1</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2023.11.15 23:39</t>
+          <t>2023.11.16 00:59</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>37715.85</t>
+          <t>37862.53</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>0,28 USD</t>
+          <t>0,27 USD</t>
         </is>
       </c>
     </row>
@@ -1595,27 +1595,27 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2023.11.03 00:03</t>
+          <t>2023.11.06 03:07</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>34789.8</t>
+          <t>34947.08</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2023.11.15 23:39</t>
+          <t>2023.11.15 23:40</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>37709.28</t>
+          <t>37708.46</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>0,26 USD</t>
+          <t>0,25 USD</t>
         </is>
       </c>
     </row>
@@ -1637,12 +1637,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2023.11.03 01:15</t>
+          <t>2023.11.06 05:49</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>34866.97</t>
+          <t>34863.41</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1652,12 +1652,12 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>37709.28</t>
+          <t>37709.29</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>0,25 USD</t>
+          <t>0,26 USD</t>
         </is>
       </c>
     </row>
@@ -1679,12 +1679,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2023.11.02 15:01</t>
+          <t>2023.11.06 06:44</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>34995.07</t>
+          <t>34763.51</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1694,12 +1694,12 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>37724</t>
+          <t>37712.78</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>0,24 USD</t>
+          <t>0,27 USD</t>
         </is>
       </c>
     </row>
@@ -1721,27 +1721,27 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2023.11.03 06:14</t>
+          <t>2023.11.06 06:44</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>34423.66</t>
+          <t>34755.58</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2023.11.15 23:38</t>
+          <t>2023.11.15 23:39</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>37723.99</t>
+          <t>37722.76</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>0,30 USD</t>
+          <t>0,27 USD</t>
         </is>
       </c>
     </row>
@@ -1763,27 +1763,27 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2023.11.03 12:56</t>
+          <t>2023.11.07 17:53</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>34255.07</t>
+          <t>34675.2</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2023.11.15 23:38</t>
+          <t>2023.11.15 23:39</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>37723.99</t>
+          <t>37722.46</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>0,31 USD</t>
+          <t>0,28 USD</t>
         </is>
       </c>
     </row>
@@ -1805,27 +1805,27 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2023.11.03 11:46</t>
+          <t>2023.11.07 11:56</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>34275.66</t>
+          <t>34604.16</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2023.11.15 23:38</t>
+          <t>2023.11.15 23:39</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>37715.34</t>
+          <t>37721.32</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>0,31 USD</t>
+          <t>0,29 USD</t>
         </is>
       </c>
     </row>
@@ -1847,27 +1847,27 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2023.11.14 01:21</t>
+          <t>2023.11.07 11:13</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>36298.39</t>
+          <t>34698.35</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2023.11.15 23:38</t>
+          <t>2023.11.15 23:39</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>37707.5</t>
+          <t>37715.85</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>0,14 USD</t>
+          <t>0,28 USD</t>
         </is>
       </c>
     </row>
@@ -1889,27 +1889,27 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2023.11.15 01:01</t>
+          <t>2023.11.03 00:03</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>35553.78</t>
+          <t>34789.8</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2023.11.15 23:38</t>
+          <t>2023.11.15 23:39</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>37707.5</t>
+          <t>37709.28</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>0,21 USD</t>
+          <t>0,26 USD</t>
         </is>
       </c>
     </row>
@@ -1931,27 +1931,27 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2023.11.15 01:46</t>
+          <t>2023.11.03 01:15</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>35544.55</t>
+          <t>34866.97</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2023.11.15 23:38</t>
+          <t>2023.11.15 23:39</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>37715.34</t>
+          <t>37709.28</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>0,21 USD</t>
+          <t>0,25 USD</t>
         </is>
       </c>
     </row>
@@ -1973,27 +1973,27 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2023.11.15 04:52</t>
+          <t>2023.11.02 15:01</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>35441.68</t>
+          <t>34995.07</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2023.11.15 23:38</t>
+          <t>2023.11.15 23:39</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>37715.34</t>
+          <t>37724</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>0,22 USD</t>
+          <t>0,24 USD</t>
         </is>
       </c>
     </row>
@@ -2015,12 +2015,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2023.11.15 06:34</t>
+          <t>2023.11.03 06:14</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>35578.89</t>
+          <t>34423.66</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2030,12 +2030,12 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>37701.99</t>
+          <t>37723.99</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>0,21 USD</t>
+          <t>0,30 USD</t>
         </is>
       </c>
     </row>
@@ -2057,27 +2057,27 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2023.11.03 02:02</t>
+          <t>2023.11.03 12:56</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>34505.04</t>
+          <t>34255.07</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2023.11.15 23:37</t>
+          <t>2023.11.15 23:38</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>37712.34</t>
+          <t>37723.99</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>0,29 USD</t>
+          <t>0,31 USD</t>
         </is>
       </c>
     </row>
@@ -2099,27 +2099,27 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2023.11.02 23:52</t>
+          <t>2023.11.03 11:46</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>34805.33</t>
+          <t>34275.66</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2023.11.15 23:37</t>
+          <t>2023.11.15 23:38</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>37693.91</t>
+          <t>37715.34</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>0,26 USD</t>
+          <t>0,31 USD</t>
         </is>
       </c>
     </row>
@@ -2141,27 +2141,27 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2023.10.30 11:37</t>
+          <t>2023.11.14 01:21</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>34544.52</t>
+          <t>36298.39</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2023.11.11 00:55</t>
+          <t>2023.11.15 23:38</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>37294.12</t>
+          <t>37707.5</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>0,24 USD</t>
+          <t>0,14 USD</t>
         </is>
       </c>
     </row>
@@ -2183,27 +2183,27 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2023.10.31 00:58</t>
+          <t>2023.11.15 01:01</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>34502.17</t>
+          <t>35553.78</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2023.11.11 00:55</t>
+          <t>2023.11.15 23:38</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>37294.12</t>
+          <t>37707.5</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>0,25 USD</t>
+          <t>0,21 USD</t>
         </is>
       </c>
     </row>
@@ -2225,27 +2225,27 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2023.10.31 06:23</t>
+          <t>2023.11.15 01:46</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>34283.55</t>
+          <t>35544.55</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2023.11.11 00:55</t>
+          <t>2023.11.15 23:38</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>37295.43</t>
+          <t>37715.34</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>0,27 USD</t>
+          <t>0,21 USD</t>
         </is>
       </c>
     </row>
@@ -2267,27 +2267,27 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2023.10.29 00:51</t>
+          <t>2023.11.15 04:52</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>34126.43</t>
+          <t>35441.68</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2023.11.11 00:54</t>
+          <t>2023.11.15 23:38</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>37305.89</t>
+          <t>37715.34</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>0,28 USD</t>
+          <t>0,22 USD</t>
         </is>
       </c>
     </row>
@@ -2309,27 +2309,27 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2023.10.29 01:00</t>
+          <t>2023.11.15 06:34</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>34111.09</t>
+          <t>35578.89</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2023.11.11 00:54</t>
+          <t>2023.11.15 23:38</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>37305.52</t>
+          <t>37701.99</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>0,28 USD</t>
+          <t>0,21 USD</t>
         </is>
       </c>
     </row>
@@ -2351,22 +2351,22 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2023.10.27 07:23</t>
+          <t>2023.11.03 02:02</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>34002.7</t>
+          <t>34505.04</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2023.11.11 00:54</t>
+          <t>2023.11.15 23:37</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>37298.7</t>
+          <t>37712.34</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2393,22 +2393,22 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2023.11.01 12:09</t>
+          <t>2023.11.02 23:52</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>34412.55</t>
+          <t>34805.33</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2023.11.11 00:54</t>
+          <t>2023.11.15 23:37</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>37297.28</t>
+          <t>37693.91</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2435,27 +2435,27 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2023.10.26 00:15</t>
+          <t>2023.10.30 11:37</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>34634.88</t>
+          <t>34544.52</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2023.11.11 00:54</t>
+          <t>2023.11.11 00:55</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>37297.28</t>
+          <t>37294.12</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>0,22 USD</t>
+          <t>0,24 USD</t>
         </is>
       </c>
     </row>
@@ -2477,27 +2477,27 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2023.10.26 02:04</t>
+          <t>2023.10.31 00:58</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>34487.06</t>
+          <t>34502.17</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2023.11.11 00:54</t>
+          <t>2023.11.11 00:55</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>37297.28</t>
+          <t>37294.12</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>0,24 USD</t>
+          <t>0,25 USD</t>
         </is>
       </c>
     </row>
@@ -2519,27 +2519,27 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2023.10.27 02:48</t>
+          <t>2023.10.31 06:23</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>34019.54</t>
+          <t>34283.55</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2023.11.11 00:54</t>
+          <t>2023.11.11 00:55</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>37293.93</t>
+          <t>37295.43</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>0,29 USD</t>
+          <t>0,27 USD</t>
         </is>
       </c>
     </row>
@@ -2561,12 +2561,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2023.10.28 02:28</t>
+          <t>2023.10.29 00:51</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>33921.79</t>
+          <t>34126.43</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2576,12 +2576,12 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>37289.58</t>
+          <t>37305.89</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>0,30 USD</t>
+          <t>0,28 USD</t>
         </is>
       </c>
     </row>
@@ -2598,32 +2598,32 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2023.11.09 15:42</t>
+          <t>2023.10.29 01:00</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>37659.59</t>
+          <t>34111.09</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2023.11.09 18:07</t>
+          <t>2023.11.11 00:54</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>36412.38</t>
+          <t>37305.52</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>0,12 USD</t>
+          <t>0,28 USD</t>
         </is>
       </c>
     </row>
@@ -2640,32 +2640,32 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2023.11.02 04:15</t>
+          <t>2023.10.27 07:23</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>35728.11</t>
+          <t>34002.7</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2023.11.07 11:13</t>
+          <t>2023.11.11 00:54</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>34715.52</t>
+          <t>37298.7</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>0,09 USD</t>
+          <t>0,29 USD</t>
         </is>
       </c>
     </row>
@@ -2687,27 +2687,27 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2023.10.28 00:32</t>
+          <t>2023.11.01 12:09</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>33864.94</t>
+          <t>34412.55</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2023.11.02 00:56</t>
+          <t>2023.11.11 00:54</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>35367.14</t>
+          <t>37297.28</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>0,14 USD</t>
+          <t>0,26 USD</t>
         </is>
       </c>
     </row>
@@ -2729,27 +2729,27 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2023.10.27 16:58</t>
+          <t>2023.10.26 00:15</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>33923.38</t>
+          <t>34634.88</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2023.11.02 00:56</t>
+          <t>2023.11.11 00:54</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>35370.53</t>
+          <t>37297.28</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>0,13 USD</t>
+          <t>0,22 USD</t>
         </is>
       </c>
     </row>
@@ -2771,27 +2771,27 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2023.10.27 02:48</t>
+          <t>2023.10.26 02:04</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>34019.54</t>
+          <t>34487.06</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2023.11.02 00:56</t>
+          <t>2023.11.11 00:54</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>35367.86</t>
+          <t>37297.28</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>0,12 USD</t>
+          <t>0,24 USD</t>
         </is>
       </c>
     </row>
@@ -2813,27 +2813,27 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2023.10.25 01:59</t>
+          <t>2023.10.27 02:48</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>33918.14</t>
+          <t>34019.54</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2023.11.02 00:55</t>
+          <t>2023.11.11 00:54</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>35397.18</t>
+          <t>37293.93</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>0,13 USD</t>
+          <t>0,29 USD</t>
         </is>
       </c>
     </row>
@@ -2855,27 +2855,27 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2023.10.25 07:26</t>
+          <t>2023.10.28 02:28</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>34042.02</t>
+          <t>33921.79</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2023.11.02 00:55</t>
+          <t>2023.11.11 00:54</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>35395.73</t>
+          <t>37289.58</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>0,12 USD</t>
+          <t>0,30 USD</t>
         </is>
       </c>
     </row>
@@ -2892,32 +2892,32 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2023.10.25 10:00</t>
+          <t>2023.11.09 15:42</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>33880.27</t>
+          <t>37659.59</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2023.11.02 00:55</t>
+          <t>2023.11.09 18:07</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>35392.7</t>
+          <t>36412.38</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>0,13 USD</t>
+          <t>0,12 USD</t>
         </is>
       </c>
     </row>
@@ -2934,32 +2934,32 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2023.10.25 01:03</t>
+          <t>2023.11.02 04:15</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>34187.1</t>
+          <t>35728.11</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2023.11.02 00:55</t>
+          <t>2023.11.07 11:13</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>35390.75</t>
+          <t>34715.52</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>0,10 USD</t>
+          <t>0,09 USD</t>
         </is>
       </c>
     </row>
@@ -2981,22 +2981,22 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2023.10.25 02:36</t>
+          <t>2023.10.28 00:32</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>33810.62</t>
+          <t>33864.94</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2023.11.02 00:55</t>
+          <t>2023.11.02 00:56</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>35390.75</t>
+          <t>35367.14</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3023,22 +3023,22 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2023.10.24 17:24</t>
+          <t>2023.10.27 16:58</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>33925.35</t>
+          <t>33923.38</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2023.11.02 00:55</t>
+          <t>2023.11.02 00:56</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>35399.83</t>
+          <t>35370.53</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3065,27 +3065,27 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2023.10.24 16:44</t>
+          <t>2023.10.27 02:48</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>34286.37</t>
+          <t>34019.54</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2023.11.02 00:55</t>
+          <t>2023.11.02 00:56</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>35403.63</t>
+          <t>35367.86</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>0,09 USD</t>
+          <t>0,12 USD</t>
         </is>
       </c>
     </row>
@@ -3107,12 +3107,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2023.10.24 02:18</t>
+          <t>2023.10.25 01:59</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>33006.51</t>
+          <t>33918.14</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3122,12 +3122,12 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>35403.63</t>
+          <t>35397.18</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>0,22 USD</t>
+          <t>0,13 USD</t>
         </is>
       </c>
     </row>
@@ -3149,12 +3149,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2023.10.23 15:35</t>
+          <t>2023.10.25 07:26</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>30507.84</t>
+          <t>34042.02</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3164,12 +3164,12 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>35404.81</t>
+          <t>35395.73</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>0,47 USD</t>
+          <t>0,12 USD</t>
         </is>
       </c>
     </row>
@@ -3191,12 +3191,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2023.10.23 02:31</t>
+          <t>2023.10.25 10:00</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>29936.05</t>
+          <t>33880.27</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3206,12 +3206,12 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>35407.01</t>
+          <t>35392.7</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>0,52 USD</t>
+          <t>0,13 USD</t>
         </is>
       </c>
     </row>
@@ -3233,27 +3233,27 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2023.10.23 10:45</t>
+          <t>2023.10.25 01:03</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>30578.2</t>
+          <t>34187.1</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2023.11.02 00:54</t>
+          <t>2023.11.02 00:55</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>35407.01</t>
+          <t>35390.75</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>0,46 USD</t>
+          <t>0,10 USD</t>
         </is>
       </c>
     </row>
@@ -3275,34 +3275,34 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2023.10.23 02:08</t>
+          <t>2023.10.25 02:36</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>29965.38</t>
+          <t>33810.62</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2023.11.02 00:54</t>
+          <t>2023.11.02 00:55</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>35407.01</t>
+          <t>35390.75</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>0,52 USD</t>
+          <t>0,14 USD</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3312,39 +3312,39 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2023.10.23 08:13</t>
+          <t>2023.10.24 17:24</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>30883.83</t>
+          <t>33925.35</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2023.11.02 00:54</t>
+          <t>2023.11.02 00:55</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>30883.83</t>
+          <t>35399.83</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>0,00 USD</t>
+          <t>0,13 USD</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3354,39 +3354,39 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2023.10.23 06:17</t>
+          <t>2023.10.24 16:44</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>30602.74</t>
+          <t>34286.37</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2023.11.02 00:54</t>
+          <t>2023.11.02 00:55</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>30602.74</t>
+          <t>35403.63</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>0,00 USD</t>
+          <t>0,09 USD</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3396,32 +3396,32 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2023.10.22 07:20</t>
+          <t>2023.10.24 02:18</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>30030.3</t>
+          <t>33006.51</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2023.11.02 00:54</t>
+          <t>2023.11.02 00:55</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>30030.3</t>
+          <t>35403.63</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>0,00 USD</t>
+          <t>0,22 USD</t>
         </is>
       </c>
     </row>
@@ -3443,27 +3443,27 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2023.10.22 17:15</t>
+          <t>2023.10.23 15:35</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>29858.8</t>
+          <t>30507.84</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2023.11.02 00:54</t>
+          <t>2023.11.02 00:55</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>34365.48</t>
+          <t>35404.81</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>0,41 USD</t>
+          <t>0,47 USD</t>
         </is>
       </c>
     </row>
@@ -3485,27 +3485,27 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2023.10.22 12:30</t>
+          <t>2023.10.23 02:31</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>29904.25</t>
+          <t>29936.05</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2023.11.02 00:54</t>
+          <t>2023.11.02 00:55</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>33055.12</t>
+          <t>35407.01</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>0,27 USD</t>
+          <t>0,52 USD</t>
         </is>
       </c>
     </row>
@@ -3527,12 +3527,12 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2023.10.22 11:32</t>
+          <t>2023.10.23 10:45</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>29975</t>
+          <t>30578.2</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -3542,12 +3542,12 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>30883.83</t>
+          <t>35407.01</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>0,04 USD</t>
+          <t>0,46 USD</t>
         </is>
       </c>
     </row>
@@ -3569,12 +3569,12 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2023.10.21 15:47</t>
+          <t>2023.10.23 02:08</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>29772</t>
+          <t>29965.38</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -3584,19 +3584,19 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>30602.74</t>
+          <t>35407.01</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>0,04 USD</t>
+          <t>0,52 USD</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3606,17 +3606,17 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2023.10.21 03:56</t>
+          <t>2023.10.23 08:13</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>29551.78</t>
+          <t>30883.83</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -3626,7 +3626,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>30030.3</t>
+          <t>30883.83</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -3653,12 +3653,12 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2023.10.24 15:15</t>
+          <t>2023.10.23 06:17</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>34365.48</t>
+          <t>30602.74</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -3668,7 +3668,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>34365.48</t>
+          <t>30602.74</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -3695,12 +3695,12 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2023.10.24 02:03</t>
+          <t>2023.10.22 07:20</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>33055.12</t>
+          <t>30030.3</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -3710,7 +3710,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>33055.12</t>
+          <t>30030.3</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -3737,27 +3737,27 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2023.10.18 02:10</t>
+          <t>2023.10.22 17:15</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>28439.23</t>
+          <t>29858.8</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2023.10.22 07:20</t>
+          <t>2023.11.02 00:54</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>30027.37</t>
+          <t>34365.48</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>0,15 USD</t>
+          <t>0,41 USD</t>
         </is>
       </c>
     </row>
@@ -3779,27 +3779,27 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2023.10.20 02:40</t>
+          <t>2023.10.22 12:30</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>28676.8</t>
+          <t>29904.25</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2023.10.22 07:20</t>
+          <t>2023.11.02 00:54</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>30027.37</t>
+          <t>33055.12</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>0,13 USD</t>
+          <t>0,27 USD</t>
         </is>
       </c>
     </row>
@@ -3821,27 +3821,27 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2023.10.19 02:18</t>
+          <t>2023.10.22 11:32</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>28333.32</t>
+          <t>29975</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2023.10.22 07:20</t>
+          <t>2023.11.02 00:54</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>30021.49</t>
+          <t>30883.83</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>0,16 USD</t>
+          <t>0,04 USD</t>
         </is>
       </c>
     </row>
@@ -3863,27 +3863,27 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2023.10.17 07:58</t>
+          <t>2023.10.21 15:47</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>28245.12</t>
+          <t>29772</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2023.10.22 07:20</t>
+          <t>2023.11.02 00:54</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>30019.57</t>
+          <t>30602.74</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>0,17 USD</t>
+          <t>0,04 USD</t>
         </is>
       </c>
     </row>
@@ -3905,34 +3905,34 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2023.10.07 04:20</t>
+          <t>2023.10.21 03:56</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>27906.96</t>
+          <t>29551.78</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2023.10.22 07:20</t>
+          <t>2023.11.02 00:54</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>30019.57</t>
+          <t>30030.3</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>0,18 USD</t>
+          <t>0,00 USD</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3942,39 +3942,39 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2023.10.08 15:06</t>
+          <t>2023.10.24 15:15</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>27827.94</t>
+          <t>34365.48</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2023.10.22 07:20</t>
+          <t>2023.11.02 00:54</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>30019.57</t>
+          <t>34365.48</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>0,19 USD</t>
+          <t>0,00 USD</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3984,32 +3984,32 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2023.10.07 20:17</t>
+          <t>2023.10.24 02:03</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>27957.29</t>
+          <t>33055.12</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2023.10.22 07:20</t>
+          <t>2023.11.02 00:54</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>30021.78</t>
+          <t>33055.12</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>0,18 USD</t>
+          <t>0,00 USD</t>
         </is>
       </c>
     </row>
@@ -4031,12 +4031,12 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2023.10.07 02:27</t>
+          <t>2023.10.18 02:10</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>27925.76</t>
+          <t>28439.23</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4046,12 +4046,12 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>30023.68</t>
+          <t>30027.37</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>0,18 USD</t>
+          <t>0,15 USD</t>
         </is>
       </c>
     </row>
@@ -4073,12 +4073,12 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2023.10.18 17:05</t>
+          <t>2023.10.20 02:40</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>28203.89</t>
+          <t>28676.8</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4088,12 +4088,12 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>30023.68</t>
+          <t>30027.37</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>0,17 USD</t>
+          <t>0,13 USD</t>
         </is>
       </c>
     </row>
@@ -4115,12 +4115,12 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2023.10.10 15:15</t>
+          <t>2023.10.19 02:18</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>27419.27</t>
+          <t>28333.32</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -4130,12 +4130,12 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>30025.81</t>
+          <t>30021.49</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>0,24 USD</t>
+          <t>0,16 USD</t>
         </is>
       </c>
     </row>
@@ -4157,12 +4157,12 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2023.10.03 00:20</t>
+          <t>2023.10.17 07:58</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>27475.41</t>
+          <t>28245.12</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -4172,12 +4172,12 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>30030.17</t>
+          <t>30019.57</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>0,22 USD</t>
+          <t>0,17 USD</t>
         </is>
       </c>
     </row>
@@ -4199,12 +4199,12 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2023.10.09 13:16</t>
+          <t>2023.10.07 04:20</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>27486.2</t>
+          <t>27906.96</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -4214,12 +4214,12 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>30031.23</t>
+          <t>30019.57</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>0,23 USD</t>
+          <t>0,18 USD</t>
         </is>
       </c>
     </row>
@@ -4241,12 +4241,12 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2023.10.09 13:20</t>
+          <t>2023.10.08 15:06</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>27498.48</t>
+          <t>27827.94</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -4256,12 +4256,12 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>30028.63</t>
+          <t>30019.57</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>0,23 USD</t>
+          <t>0,19 USD</t>
         </is>
       </c>
     </row>
@@ -4283,12 +4283,12 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2023.09.20 02:00</t>
+          <t>2023.10.07 20:17</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>27209.9</t>
+          <t>27957.29</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -4298,12 +4298,12 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>30030.12</t>
+          <t>30021.78</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>0,22 USD</t>
+          <t>0,18 USD</t>
         </is>
       </c>
     </row>
@@ -4325,12 +4325,12 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2023.10.06 00:10</t>
+          <t>2023.10.07 02:27</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>27439.68</t>
+          <t>27925.76</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -4340,12 +4340,12 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>30030.12</t>
+          <t>30023.68</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>0,23 USD</t>
+          <t>0,18 USD</t>
         </is>
       </c>
     </row>
@@ -4367,34 +4367,34 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2023.09.19 00:33</t>
+          <t>2023.10.18 17:05</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>26819.42</t>
+          <t>28203.89</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2023.10.22 07:19</t>
+          <t>2023.10.22 07:20</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>30021.96</t>
+          <t>30023.68</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>0,26 USD</t>
+          <t>0,17 USD</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -4404,39 +4404,39 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2023.10.20 10:19</t>
+          <t>2023.10.10 15:15</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>29417.33</t>
+          <t>27419.27</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2023.10.22 07:19</t>
+          <t>2023.10.22 07:20</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>29417.33</t>
+          <t>30025.81</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>0,00 USD</t>
+          <t>0,24 USD</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -4446,39 +4446,39 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2023.10.20 01:54</t>
+          <t>2023.10.03 00:20</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>28678.7</t>
+          <t>27475.41</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2023.10.22 07:19</t>
+          <t>2023.10.22 07:20</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>28678.7</t>
+          <t>30030.17</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>0,00 USD</t>
+          <t>0,22 USD</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -4488,32 +4488,32 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2023.10.17 02:01</t>
+          <t>2023.10.09 13:16</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>28494.3</t>
+          <t>27486.2</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2023.10.22 07:19</t>
+          <t>2023.10.22 07:20</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>28494.3</t>
+          <t>30031.23</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>0,00 USD</t>
+          <t>0,23 USD</t>
         </is>
       </c>
     </row>
@@ -4535,27 +4535,27 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2023.08.31 00:56</t>
+          <t>2023.10.09 13:20</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>27271.43</t>
+          <t>27498.48</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2023.10.22 07:19</t>
+          <t>2023.10.22 07:20</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>29417.33</t>
+          <t>30028.63</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>0,11 USD</t>
+          <t>0,23 USD</t>
         </is>
       </c>
     </row>
@@ -4577,34 +4577,34 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2023.08.31 00:20</t>
+          <t>2023.09.20 02:00</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>27279.4</t>
+          <t>27209.9</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2023.10.22 07:19</t>
+          <t>2023.10.22 07:20</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>28678.7</t>
+          <t>30030.12</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>0,03 USD</t>
+          <t>0,22 USD</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -4614,32 +4614,32 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2023.09.04 01:48</t>
+          <t>2023.10.06 00:10</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>25962.34</t>
+          <t>27439.68</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2023.10.22 07:19</t>
+          <t>2023.10.22 07:20</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>25962.34</t>
+          <t>30030.12</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>0,00 USD</t>
+          <t>0,23 USD</t>
         </is>
       </c>
     </row>
@@ -4661,12 +4661,12 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2023.08.31 00:20</t>
+          <t>2023.09.19 00:33</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>27282.43</t>
+          <t>26819.42</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -4676,19 +4676,19 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>28494.3</t>
+          <t>30021.96</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>0,01 USD</t>
+          <t>0,26 USD</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -4698,72 +4698,366 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2023.11.22 01:00</t>
+          <t>2023.10.20 10:19</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>35700.62</t>
+          <t>29417.33</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2023.11.22 11:16</t>
+          <t>2023.10.22 07:19</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>36628</t>
+          <t>29417.33</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>0,28 USD</t>
+          <t>0,00 USD</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>BTCUSD</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023.10.20 01:54</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>28678.7</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2023.10.22 07:19</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>28678.7</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>0,00 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>BTCUSD</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023.10.17 02:01</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>28494.3</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2023.10.22 07:19</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>28494.3</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>0,00 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>BTCUSD</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023.08.31 00:56</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>27271.43</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2023.10.22 07:19</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>29417.33</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>0,11 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>BTCUSD</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023.08.31 00:20</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>27279.4</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2023.10.22 07:19</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>28678.7</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>0,03 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>BTCUSD</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2023.09.04 01:48</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>25962.34</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2023.10.22 07:19</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>25962.34</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>0,00 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>BTCUSD</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2023.08.31 00:20</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>27282.43</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2023.10.22 07:19</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>28494.3</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>0,01 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
           <t>0,03</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>BTCUSD</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>buy</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>BTCUSD</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2023.11.22 01:00</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>35700.62</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2023.11.22 11:16</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>36628</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>0,28 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>BTCUSD</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
         <is>
           <t>2023.11.17 01:46</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>36355.04</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>2023.11.20 00:58</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>37347.51</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
+      <c r="H110" t="inlineStr">
         <is>
           <t>0,28 USD</t>
         </is>
